--- a/R/analysis/data/Pt_12_Experimental.xlsx
+++ b/R/analysis/data/Pt_12_Experimental.xlsx
@@ -524,7 +524,7 @@
         <v>0.71</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>1.92</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.8</v>
+        <v>4.8</v>
       </c>
       <c r="M3" t="n">
         <v>0.58</v>
@@ -635,16 +635,16 @@
         <v>1.92</v>
       </c>
       <c r="K4" t="n">
-        <v>5.75</v>
+        <v>1.04</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.73</v>
+        <v>4.06</v>
       </c>
       <c r="M4" t="n">
-        <v>3.66</v>
+        <v>0.12</v>
       </c>
       <c r="N4" t="n">
-        <v>0.08</v>
+        <v>2.58</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0.58</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.67</v>
+        <v>1.67</v>
       </c>
       <c r="O5" t="n">
         <v>0.35</v>
@@ -756,7 +756,7 @@
         <v>0.79</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.43</v>
+        <v>3.43</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
@@ -811,16 +811,16 @@
         <v>1.41</v>
       </c>
       <c r="K7" t="n">
-        <v>3.98</v>
+        <v>0.87</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.62</v>
+        <v>2.82</v>
       </c>
       <c r="M7" t="n">
-        <v>3.3</v>
+        <v>0.94</v>
       </c>
       <c r="N7" t="n">
-        <v>0.66</v>
+        <v>2.34</v>
       </c>
       <c r="O7" t="n">
         <v>0.08</v>
@@ -880,7 +880,7 @@
         <v>0.55</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.6</v>
+        <v>2.6</v>
       </c>
       <c r="O8" t="n">
         <v>0.35</v>
@@ -932,7 +932,7 @@
         <v>0.93</v>
       </c>
       <c r="L9" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="e">
@@ -985,14 +985,14 @@
         <v>0.78</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>0.94</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.66</v>
+        <v>2.34</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>-2.6</v>
+        <v>2.6</v>
       </c>
       <c r="O10" t="n">
         <v>0.08</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.47</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.83</v>
+        <v>3.83</v>
       </c>
       <c r="M12" t="n">
         <v>2.12</v>
@@ -1163,16 +1163,16 @@
         <v>1.77</v>
       </c>
       <c r="K13" t="n">
-        <v>5.77</v>
+        <v>0.35</v>
       </c>
       <c r="L13" t="n">
-        <v>0.25</v>
+        <v>4.08</v>
       </c>
       <c r="M13" t="n">
-        <v>5.3</v>
+        <v>0.35</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.25</v>
+        <v>3.75</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>1.41</v>
       </c>
       <c r="N14" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>0.82</v>
       </c>
       <c r="L15" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="M15" t="n">
         <v>0.71</v>
@@ -1343,16 +1343,16 @@
         <v>1.24</v>
       </c>
       <c r="K16" t="n">
-        <v>3.89</v>
+        <v>0.11</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08</v>
+        <v>2.75</v>
       </c>
       <c r="M16" t="n">
-        <v>3.18</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.75</v>
+        <v>2.25</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0.58</v>
       </c>
       <c r="N17" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0.55</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.6</v>
+        <v>1.6</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -1523,16 +1523,16 @@
         <v>1.24</v>
       </c>
       <c r="K19" t="n">
-        <v>2.97</v>
+        <v>0.71</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="M19" t="n">
-        <v>3.77</v>
+        <v>0.94</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.66</v>
+        <v>2.66</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="K21"/>
       <c r="L21" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>1.13</v>
@@ -1695,16 +1695,16 @@
         <v>0.88</v>
       </c>
       <c r="K22" t="n">
-        <v>6.16</v>
+        <v>0.5</v>
       </c>
       <c r="L22" t="n">
-        <v>0.36</v>
+        <v>4.36</v>
       </c>
       <c r="M22" t="n">
-        <v>5.35</v>
+        <v>0.3</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.22</v>
+        <v>3.79</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="K24"/>
       <c r="L24" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>0.9</v>
@@ -1867,16 +1867,16 @@
         <v>1.38</v>
       </c>
       <c r="K25" t="n">
-        <v>3.44</v>
+        <v>0.61</v>
       </c>
       <c r="L25" t="n">
-        <v>0.43</v>
+        <v>2.43</v>
       </c>
       <c r="M25" t="n">
-        <v>2.93</v>
+        <v>0.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.07</v>
+        <v>2.07</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0.58</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="M27" t="n">
         <v>0.5</v>
@@ -2043,16 +2043,16 @@
         <v>0.86</v>
       </c>
       <c r="K28" t="n">
-        <v>2.98</v>
+        <v>0.86</v>
       </c>
       <c r="L28" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="M28" t="n">
-        <v>2.3</v>
+        <v>0.88</v>
       </c>
       <c r="N28" t="n">
-        <v>0.62</v>
+        <v>1.62</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
